--- a/biology/Zoologie/Astropyga/Astropyga.xlsx
+++ b/biology/Zoologie/Astropyga/Astropyga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astropyga est un genre d’oursins (échinodermes) réguliers de la famille des Diadematidae.
 </t>
@@ -511,14 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Astropyga fut décrit en 1855 par John Edward Gray[1].
-Chacune des quatre espèces occupe l'un des principaux bassins océaniques du monde : A. radiata dans l'Indo-Pacifique, A. pulvinata dans le Pacifique-Est, A. magnifica dans l'Atlantique[2], et A. nuptialis dans l'Atlantique sud[3].
-Morphologie générale
-Ils sont caractérisés par une assez grande taille, une forme s'aplatissant à mesure que les individus grossissent, et souvent des couleurs vives, témoignant de leur venimosité. Les piquants (« radioles ») sont creux, longs et effilés, d'allure d'autant plus menaçantes qu'ils « suivent » les objets qui s'approchent de l'animal grâce au système photosensible[4]. En réalité, seules les « radioles secondaires » (piquants les plus courts) sont équipées de venin, les radioles primaires servant plus à la locomotion et à la dissuasion.
-Caractéristiques squelettiques
-Le test (coquille) est fin et fragile, très aplati chez les sujets les plus âgés. Le disque apical est monocyclique, avec de larges plaques périproctales. Les ambulacres sont étroits et droits, avec des pores non liés. Les plaques ambulacraires sont trigéminées avec un tubercule unique et volumineux seulement sur les plaques secondaires ou tertiaires. Les interambulacres sont larges, portant de multiples tubercules primaires perforés et crénulés. Le péristome est relativement petit, avec des encoches buccales arrondies[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Astropyga fut décrit en 1855 par John Edward Gray.
+Chacune des quatre espèces occupe l'un des principaux bassins océaniques du monde : A. radiata dans l'Indo-Pacifique, A. pulvinata dans le Pacifique-Est, A. magnifica dans l'Atlantique, et A. nuptialis dans l'Atlantique sud.
 </t>
         </is>
       </c>
@@ -544,17 +554,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont caractérisés par une assez grande taille, une forme s'aplatissant à mesure que les individus grossissent, et souvent des couleurs vives, témoignant de leur venimosité. Les piquants (« radioles ») sont creux, longs et effilés, d'allure d'autant plus menaçantes qu'ils « suivent » les objets qui s'approchent de l'animal grâce au système photosensible. En réalité, seules les « radioles secondaires » (piquants les plus courts) sont équipées de venin, les radioles primaires servant plus à la locomotion et à la dissuasion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Astropyga</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astropyga</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques squelettiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test (coquille) est fin et fragile, très aplati chez les sujets les plus âgés. Le disque apical est monocyclique, avec de larges plaques périproctales. Les ambulacres sont étroits et droits, avec des pores non liés. Les plaques ambulacraires sont trigéminées avec un tubercule unique et volumineux seulement sur les plaques secondaires ou tertiaires. Les interambulacres sont larges, portant de multiples tubercules primaires perforés et crénulés. Le péristome est relativement petit, avec des encoches buccales arrondies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Astropyga</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astropyga</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (12 septembre 2013)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (12 septembre 2013) :
 Astropyga magnifica (Leske, 1778) - oursin magnifique des Caraïbes (Caraïbes)
 Astropyga nuptialis (Tommasi, 1958) (Atlantique sud-est)
 Astropyga pulvinata (Lamarck, 1816) (Pacifique est)
 Astropyga radiata (Leske, 1778) - oursin rouge (Indo-Pacifique tropical)
-NCBI  (12 septembre 2013)[5] ne reconnaît que les trois premières espèces ; ITIS      (12 septembre 2013)[6] n'enregistre que Astropyga magnifera (sic).
+NCBI  (12 septembre 2013) ne reconnaît que les trois premières espèces ; ITIS      (12 septembre 2013) n'enregistre que Astropyga magnifera (sic).
 			Astropyga magnifica
 			Astropyga pulvinata
 			Astropyga radiata
@@ -562,31 +648,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Astropyga</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Astropyga</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Astropyga vient du grec aster (étoile) et pyga (anus). Ces oursins sont donc caractérisés par le fait qu'ils ont un anus en forme d'étoile, ou plus précisément un motif en étoile autour de leur anus.
 </t>
